--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmazu\Desktop\ConsoleApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4A8309-2858-4610-8B2C-06BEC60AFC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC46163-899E-447E-80FD-2DD144E9A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10332" yWindow="0" windowWidth="12708" windowHeight="12240" xr2:uid="{BE0F9093-0183-43D9-8575-C60998FB4F2E}"/>
+    <workbookView xWindow="10440" yWindow="588" windowWidth="12708" windowHeight="12240" xr2:uid="{BE0F9093-0183-43D9-8575-C60998FB4F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>RoomId</t>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>MaxNumberOfGuests</t>
+  </si>
+  <si>
+    <t>RoomStandardId</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -403,43 +426,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4B487-0387-4C41-B599-4B3EE05217D0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>101</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -447,33 +477,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -481,33 +511,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -515,18 +545,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>203</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>204</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
